--- a/Apps/app4-invoice/invoices/10001-2023.1.18.xlsx
+++ b/Apps/app4-invoice/invoices/10001-2023.1.18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5de6fcc1d8554dbd/Desktop/Progetti/Corso Python/Apps/app4-invoice/invoices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E74022ED2B5D1D142EC46EDD4B4427FC95C7990E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D6A1F6-1193-4D79-903F-7EFAFEA6EABB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E74022ED2B5D1D142EC46EDD4B4427FC95C7990E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CF53FE-A235-434F-970D-6F13C61C672A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -61,6 +61,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -205,7 +211,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -240,6 +246,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -325,6 +334,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,7 +1425,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.9" customHeight="1"/>
@@ -1477,7 +1494,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="14.1" customHeight="1">
       <c r="A5" s="11"/>
@@ -1529,7 +1546,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Apps/app4-invoice/invoices/10001-2023.1.18.xlsx
+++ b/Apps/app4-invoice/invoices/10001-2023.1.18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5de6fcc1d8554dbd/Desktop/Progetti/Corso Python/Apps/app4-invoice/invoices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_E74022ED2B5D1D142EC46EDD4B4427FC95C7990E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CF53FE-A235-434F-970D-6F13C61C672A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_E74022ED2B5D1D142EC46EDD4B4427FC95C7990E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B1AC77-92D1-41AA-8195-D2ED516BC5CD}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>4772822</t>
   </si>
   <si>
-    <t>Microscope Landless Land</t>
+    <t>Microscope Landless Land fdghdsfyhsg</t>
   </si>
 </sst>
 </file>
@@ -341,6 +341,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1425,7 +1433,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.9" customHeight="1"/>
